--- a/meta/17-4-1.xlsx
+++ b/meta/17-4-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>17.4 Оказывать развивающимся странам помощь в целях обеспечения долгосрочной приемлемости уровня их задолженности благодаря проведению скоординированной политики, направленной на поощрение, в зависимости от обстоятельств, финансирования за счет заемных средств, облегчения долгового бремени и реструктуризации задолженности, и решить проблему внешней задолженности бедных стран с крупной задолженностью, с тем чтобы облегчить их долговое бремя</t>
   </si>
   <si>
-    <t>17.4.1 Расходы на обслуживание долга в процентном отношении к экспорту товаров и услуг</t>
-  </si>
-  <si>
     <t>Министерство финансов Кыргызской Республики (Управление государственного долга)</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
     <t> Бюллетень Национального банка Кыргызской Республики - https://www.nbkr.kg/index1.jsp?item=137&amp;lang=RUS  
  Метаданные на сайте ООН - https://unstats.un.org/sdgs/Metadata-17-04-01.pdf
  Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>17.4.1 Доля поступлений от экспорта товаров и услуг и первичного дохода, расходуемая на обслуживание долга</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -617,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -633,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -741,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
